--- a/target/test-classes/testDataExcelFiles/CategoryTD.xlsx
+++ b/target/test-classes/testDataExcelFiles/CategoryTD.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA51E475-6195-41A1-8BEC-6D554265C778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E60417-5D67-4193-AF24-A9BC1FCCE636}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Add Venue" sheetId="1" r:id="rId1"/>
+    <sheet name="Add Category" sheetId="1" r:id="rId1"/>
+    <sheet name="Update Category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Testcase title</t>
   </si>
@@ -92,6 +93,30 @@
   </si>
   <si>
     <t>kjk@%1</t>
+  </si>
+  <si>
+    <t>edit category| verify that name doesn't accept a special character</t>
+  </si>
+  <si>
+    <t>edit category| verify that the updated category after logout and login again</t>
+  </si>
+  <si>
+    <t>CategoryUpdatedNameEn</t>
+  </si>
+  <si>
+    <t>CategoryUpdatedNameAr</t>
+  </si>
+  <si>
+    <t>Success#Category updated successfully</t>
+  </si>
+  <si>
+    <t>website.jpg</t>
+  </si>
+  <si>
+    <t>list category| verify that the edit icon is clickable</t>
+  </si>
+  <si>
+    <t>list category| verify that the category name updated successfully when update it</t>
   </si>
 </sst>
 </file>
@@ -128,7 +153,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +166,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -225,12 +256,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -291,6 +348,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,4 +830,158 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050E7463-017B-4EBB-83FC-9BAEF3B4EBD8}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" s="26" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21">
+        <v>34483</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
+        <v>34484</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21">
+        <v>34485</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21">
+        <v>34490</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/target/test-classes/testDataExcelFiles/CategoryTD.xlsx
+++ b/target/test-classes/testDataExcelFiles/CategoryTD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E60417-5D67-4193-AF24-A9BC1FCCE636}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120AC9A9-B89E-4986-9C26-B4F611EDCB43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Category" sheetId="1" r:id="rId1"/>
     <sheet name="Update Category" sheetId="2" r:id="rId2"/>
+    <sheet name="DeleteCategory" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Testcase title</t>
   </si>
@@ -117,6 +118,21 @@
   </si>
   <si>
     <t>list category| verify that the category name updated successfully when update it</t>
+  </si>
+  <si>
+    <t>delete category| verify that delete category icon is clickable</t>
+  </si>
+  <si>
+    <t>delete category| verify that confirmation message will appear before deleting category</t>
+  </si>
+  <si>
+    <t>Success#Category deleted</t>
+  </si>
+  <si>
+    <t>Category_Status_Code</t>
+  </si>
+  <si>
+    <t>DELETED</t>
   </si>
 </sst>
 </file>
@@ -287,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -374,6 +390,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -836,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050E7463-017B-4EBB-83FC-9BAEF3B4EBD8}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,4 +1006,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3284CE9A-27FF-45A8-A5FD-224769EA6565}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="26" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21">
+        <v>34491</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
+        <v>34492</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>